--- a/docs/study/Random Platinum Defence/rpd.xlsx
+++ b/docs/study/Random Platinum Defence/rpd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysnu-my.sharepoint.com/personal/arnold518_seoul_ac_kr/Documents/Informatics/Blog/ps-notes/docs/study/Random Platinum Defence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B8BE1D4-5C6D-450A-B661-BECD6C957561}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D709FA92-A228-42EA-B15B-1C5EA83ED878}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3B4B87AD-5D29-4036-BF04-806A8FD514C2}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:G486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -492,16 +492,34 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45048</v>
+      </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B66" si="0">CONCATENATE("[", G3, "](https://www.acmicpc.net/problem/", G3, ")")</f>
-        <v>[](https://www.acmicpc.net/problem/)</v>
+        <v>[14756](https://www.acmicpc.net/problem/14756)</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="1" xml:space="preserve"> C3+D3+20*E3</f>
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14756</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45049</v>
+      </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -512,6 +530,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45050</v>
+      </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -522,6 +543,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45051</v>
+      </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -532,6 +556,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45052</v>
+      </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -542,6 +569,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45053</v>
+      </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -552,6 +582,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45054</v>
+      </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -562,6 +595,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45055</v>
+      </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -572,6 +608,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45056</v>
+      </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -582,6 +621,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45057</v>
+      </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -592,6 +634,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45058</v>
+      </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -602,6 +647,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45059</v>
+      </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -612,6 +660,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45060</v>
+      </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -622,6 +673,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45061</v>
+      </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -631,7 +685,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45062</v>
+      </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -641,7 +698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45063</v>
+      </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -651,7 +711,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45064</v>
+      </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -661,7 +724,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45065</v>
+      </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -671,7 +737,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45066</v>
+      </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -681,7 +750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45067</v>
+      </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -691,7 +763,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45068</v>
+      </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -701,7 +776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45069</v>
+      </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -711,7 +789,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45070</v>
+      </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -721,7 +802,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45071</v>
+      </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -731,7 +815,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45072</v>
+      </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -741,7 +828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45073</v>
+      </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -751,7 +841,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45074</v>
+      </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -761,7 +854,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45075</v>
+      </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -771,7 +867,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45076</v>
+      </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -781,7 +880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45077</v>
+      </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -791,7 +893,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45078</v>
+      </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -801,7 +906,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45079</v>
+      </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -811,7 +919,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45080</v>
+      </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -821,7 +932,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45081</v>
+      </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -831,7 +945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45082</v>
+      </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -841,7 +958,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45083</v>
+      </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -851,7 +971,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45084</v>
+      </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -861,7 +984,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45085</v>
+      </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -871,7 +997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45086</v>
+      </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -881,7 +1010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45087</v>
+      </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -891,7 +1023,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45088</v>
+      </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -901,7 +1036,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45089</v>
+      </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -911,7 +1049,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45090</v>
+      </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -921,7 +1062,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45091</v>
+      </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -931,7 +1075,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45092</v>
+      </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -941,7 +1088,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45093</v>
+      </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -951,7 +1101,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45094</v>
+      </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -961,7 +1114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45095</v>
+      </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -971,7 +1127,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45096</v>
+      </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -981,7 +1140,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45097</v>
+      </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -991,7 +1153,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45098</v>
+      </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1001,7 +1166,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45099</v>
+      </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1011,7 +1179,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45100</v>
+      </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1021,7 +1192,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45101</v>
+      </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1031,7 +1205,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45102</v>
+      </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1041,7 +1218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45103</v>
+      </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1051,7 +1231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>45104</v>
+      </c>
       <c r="B59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1061,7 +1244,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>45105</v>
+      </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1071,7 +1257,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45106</v>
+      </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1081,7 +1270,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>45107</v>
+      </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1091,7 +1283,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>45108</v>
+      </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1101,7 +1296,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>45109</v>
+      </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1111,7 +1309,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>45110</v>
+      </c>
       <c r="B65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1121,7 +1322,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>45111</v>
+      </c>
       <c r="B66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1131,7 +1335,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>45112</v>
+      </c>
       <c r="B67" s="1" t="str">
         <f t="shared" ref="B67:B130" si="2">CONCATENATE("[", G67, "](https://www.acmicpc.net/problem/", G67, ")")</f>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1141,7 +1348,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>45113</v>
+      </c>
       <c r="B68" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1151,7 +1361,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>45114</v>
+      </c>
       <c r="B69" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1161,7 +1374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>45115</v>
+      </c>
       <c r="B70" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1171,7 +1387,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>45116</v>
+      </c>
       <c r="B71" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1181,7 +1400,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>45117</v>
+      </c>
       <c r="B72" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1191,7 +1413,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>45118</v>
+      </c>
       <c r="B73" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1201,7 +1426,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>45119</v>
+      </c>
       <c r="B74" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1211,7 +1439,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>45120</v>
+      </c>
       <c r="B75" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1221,7 +1452,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>45121</v>
+      </c>
       <c r="B76" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1231,7 +1465,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>45122</v>
+      </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1241,7 +1478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>45123</v>
+      </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1251,7 +1491,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>45124</v>
+      </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1261,7 +1504,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>45125</v>
+      </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1271,7 +1517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>45126</v>
+      </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1281,7 +1530,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>45127</v>
+      </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1291,7 +1543,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>45128</v>
+      </c>
       <c r="B83" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1301,7 +1556,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>45129</v>
+      </c>
       <c r="B84" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1311,7 +1569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>45130</v>
+      </c>
       <c r="B85" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1321,7 +1582,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>45131</v>
+      </c>
       <c r="B86" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1331,7 +1595,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>45132</v>
+      </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1341,7 +1608,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>45133</v>
+      </c>
       <c r="B88" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1351,7 +1621,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>45134</v>
+      </c>
       <c r="B89" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1361,7 +1634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>45135</v>
+      </c>
       <c r="B90" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1371,7 +1647,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>45136</v>
+      </c>
       <c r="B91" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1381,7 +1660,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>45137</v>
+      </c>
       <c r="B92" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1391,7 +1673,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>45138</v>
+      </c>
       <c r="B93" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1401,7 +1686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>45139</v>
+      </c>
       <c r="B94" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1411,7 +1699,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>45140</v>
+      </c>
       <c r="B95" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1421,7 +1712,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>45141</v>
+      </c>
       <c r="B96" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1431,7 +1725,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>45142</v>
+      </c>
       <c r="B97" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1441,7 +1738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>45143</v>
+      </c>
       <c r="B98" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1451,7 +1751,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>45144</v>
+      </c>
       <c r="B99" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1461,7 +1764,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>45145</v>
+      </c>
       <c r="B100" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1471,7 +1777,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>45146</v>
+      </c>
       <c r="B101" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1481,7 +1790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>45147</v>
+      </c>
       <c r="B102" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1491,7 +1803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>45148</v>
+      </c>
       <c r="B103" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1501,7 +1816,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>45149</v>
+      </c>
       <c r="B104" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1511,7 +1829,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>45150</v>
+      </c>
       <c r="B105" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1521,7 +1842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>45151</v>
+      </c>
       <c r="B106" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1531,7 +1855,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>45152</v>
+      </c>
       <c r="B107" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1541,7 +1868,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>45153</v>
+      </c>
       <c r="B108" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1551,7 +1881,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>45154</v>
+      </c>
       <c r="B109" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1561,7 +1894,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>45155</v>
+      </c>
       <c r="B110" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1571,7 +1907,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>45156</v>
+      </c>
       <c r="B111" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1581,7 +1920,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>45157</v>
+      </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1591,7 +1933,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>45158</v>
+      </c>
       <c r="B113" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1601,7 +1946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>45159</v>
+      </c>
       <c r="B114" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1611,7 +1959,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>45160</v>
+      </c>
       <c r="B115" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
@@ -1621,1711 +1972,2527 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>45161</v>
+      </c>
       <c r="B116" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>45162</v>
+      </c>
       <c r="B117" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>45163</v>
+      </c>
       <c r="B118" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>45164</v>
+      </c>
       <c r="B119" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>45165</v>
+      </c>
       <c r="B120" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>45166</v>
+      </c>
       <c r="B121" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>45167</v>
+      </c>
       <c r="B122" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>45168</v>
+      </c>
       <c r="B123" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>45169</v>
+      </c>
       <c r="B124" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>45170</v>
+      </c>
       <c r="B125" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>45171</v>
+      </c>
       <c r="B126" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>45172</v>
+      </c>
       <c r="B127" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45173</v>
+      </c>
       <c r="B128" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>45174</v>
+      </c>
       <c r="B129" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45175</v>
+      </c>
       <c r="B130" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>45176</v>
+      </c>
       <c r="B131" s="1" t="str">
         <f t="shared" ref="B131:B194" si="4">CONCATENATE("[", G131, "](https://www.acmicpc.net/problem/", G131, ")")</f>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>45177</v>
+      </c>
       <c r="B132" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>45178</v>
+      </c>
       <c r="B133" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>45179</v>
+      </c>
       <c r="B134" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45180</v>
+      </c>
       <c r="B135" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>45181</v>
+      </c>
       <c r="B136" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>45182</v>
+      </c>
       <c r="B137" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>45183</v>
+      </c>
       <c r="B138" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>45184</v>
+      </c>
       <c r="B139" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>45185</v>
+      </c>
       <c r="B140" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>45186</v>
+      </c>
       <c r="B141" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>45187</v>
+      </c>
       <c r="B142" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>45188</v>
+      </c>
       <c r="B143" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>45189</v>
+      </c>
       <c r="B144" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>45190</v>
+      </c>
       <c r="B145" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>45191</v>
+      </c>
       <c r="B146" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>45192</v>
+      </c>
       <c r="B147" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>45193</v>
+      </c>
       <c r="B148" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>45194</v>
+      </c>
       <c r="B149" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>45195</v>
+      </c>
       <c r="B150" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>45196</v>
+      </c>
       <c r="B151" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>45197</v>
+      </c>
       <c r="B152" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>45198</v>
+      </c>
       <c r="B153" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>45199</v>
+      </c>
       <c r="B154" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>45200</v>
+      </c>
       <c r="B155" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>45201</v>
+      </c>
       <c r="B156" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>45202</v>
+      </c>
       <c r="B157" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>45203</v>
+      </c>
       <c r="B158" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>45204</v>
+      </c>
       <c r="B159" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>45205</v>
+      </c>
       <c r="B160" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>45206</v>
+      </c>
       <c r="B161" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>45207</v>
+      </c>
       <c r="B162" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>45208</v>
+      </c>
       <c r="B163" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>45209</v>
+      </c>
       <c r="B164" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>45210</v>
+      </c>
       <c r="B165" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>45211</v>
+      </c>
       <c r="B166" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>45212</v>
+      </c>
       <c r="B167" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>45213</v>
+      </c>
       <c r="B168" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>45214</v>
+      </c>
       <c r="B169" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>45215</v>
+      </c>
       <c r="B170" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>45216</v>
+      </c>
       <c r="B171" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>45217</v>
+      </c>
       <c r="B172" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>45218</v>
+      </c>
       <c r="B173" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>45219</v>
+      </c>
       <c r="B174" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>45220</v>
+      </c>
       <c r="B175" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>45221</v>
+      </c>
       <c r="B176" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>45222</v>
+      </c>
       <c r="B177" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>45223</v>
+      </c>
       <c r="B178" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>45224</v>
+      </c>
       <c r="B179" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>45225</v>
+      </c>
       <c r="B180" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>45226</v>
+      </c>
       <c r="B181" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>45227</v>
+      </c>
       <c r="B182" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>45228</v>
+      </c>
       <c r="B183" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>45229</v>
+      </c>
       <c r="B184" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>45230</v>
+      </c>
       <c r="B185" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>45231</v>
+      </c>
       <c r="B186" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>45232</v>
+      </c>
       <c r="B187" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>45233</v>
+      </c>
       <c r="B188" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>45234</v>
+      </c>
       <c r="B189" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>45235</v>
+      </c>
       <c r="B190" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>45236</v>
+      </c>
       <c r="B191" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>45237</v>
+      </c>
       <c r="B192" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>45238</v>
+      </c>
       <c r="B193" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>45239</v>
+      </c>
       <c r="B194" s="1" t="str">
         <f t="shared" si="4"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>45240</v>
+      </c>
       <c r="B195" s="1" t="str">
         <f t="shared" ref="B195:B258" si="5">CONCATENATE("[", G195, "](https://www.acmicpc.net/problem/", G195, ")")</f>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>45241</v>
+      </c>
       <c r="B196" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>45242</v>
+      </c>
       <c r="B197" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>45243</v>
+      </c>
       <c r="B198" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>45244</v>
+      </c>
       <c r="B199" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>45245</v>
+      </c>
       <c r="B200" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>45246</v>
+      </c>
       <c r="B201" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>45247</v>
+      </c>
       <c r="B202" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>45248</v>
+      </c>
       <c r="B203" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>45249</v>
+      </c>
       <c r="B204" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>45250</v>
+      </c>
       <c r="B205" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>45251</v>
+      </c>
       <c r="B206" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>45252</v>
+      </c>
       <c r="B207" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>45253</v>
+      </c>
       <c r="B208" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>45254</v>
+      </c>
       <c r="B209" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>45255</v>
+      </c>
       <c r="B210" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>45256</v>
+      </c>
       <c r="B211" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>45257</v>
+      </c>
       <c r="B212" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>45258</v>
+      </c>
       <c r="B213" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>45259</v>
+      </c>
       <c r="B214" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>45260</v>
+      </c>
       <c r="B215" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>45261</v>
+      </c>
       <c r="B216" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>45262</v>
+      </c>
       <c r="B217" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>45263</v>
+      </c>
       <c r="B218" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>45264</v>
+      </c>
       <c r="B219" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>45265</v>
+      </c>
       <c r="B220" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>45266</v>
+      </c>
       <c r="B221" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>45267</v>
+      </c>
       <c r="B222" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>45268</v>
+      </c>
       <c r="B223" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>45269</v>
+      </c>
       <c r="B224" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>45270</v>
+      </c>
       <c r="B225" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>45271</v>
+      </c>
       <c r="B226" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>45272</v>
+      </c>
       <c r="B227" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>45273</v>
+      </c>
       <c r="B228" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>45274</v>
+      </c>
       <c r="B229" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>45275</v>
+      </c>
       <c r="B230" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>45276</v>
+      </c>
       <c r="B231" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>45277</v>
+      </c>
       <c r="B232" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>45278</v>
+      </c>
       <c r="B233" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>45279</v>
+      </c>
       <c r="B234" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>45280</v>
+      </c>
       <c r="B235" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>45281</v>
+      </c>
       <c r="B236" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>45282</v>
+      </c>
       <c r="B237" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>45283</v>
+      </c>
       <c r="B238" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>45284</v>
+      </c>
       <c r="B239" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>45285</v>
+      </c>
       <c r="B240" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>45286</v>
+      </c>
       <c r="B241" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>45287</v>
+      </c>
       <c r="B242" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>45288</v>
+      </c>
       <c r="B243" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>45289</v>
+      </c>
       <c r="B244" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>45290</v>
+      </c>
       <c r="B245" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>45291</v>
+      </c>
       <c r="B246" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>45292</v>
+      </c>
       <c r="B247" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>45293</v>
+      </c>
       <c r="B248" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>45294</v>
+      </c>
       <c r="B249" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>45295</v>
+      </c>
       <c r="B250" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>45296</v>
+      </c>
       <c r="B251" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>45297</v>
+      </c>
       <c r="B252" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>45298</v>
+      </c>
       <c r="B253" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>45299</v>
+      </c>
       <c r="B254" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>45300</v>
+      </c>
       <c r="B255" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>45301</v>
+      </c>
       <c r="B256" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>45302</v>
+      </c>
       <c r="B257" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>45303</v>
+      </c>
       <c r="B258" s="1" t="str">
         <f t="shared" si="5"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>45304</v>
+      </c>
       <c r="B259" s="1" t="str">
         <f t="shared" ref="B259:B322" si="6">CONCATENATE("[", G259, "](https://www.acmicpc.net/problem/", G259, ")")</f>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>45305</v>
+      </c>
       <c r="B260" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>45306</v>
+      </c>
       <c r="B261" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>45307</v>
+      </c>
       <c r="B262" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>45308</v>
+      </c>
       <c r="B263" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>45309</v>
+      </c>
       <c r="B264" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>45310</v>
+      </c>
       <c r="B265" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>45311</v>
+      </c>
       <c r="B266" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>45312</v>
+      </c>
       <c r="B267" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>45313</v>
+      </c>
       <c r="B268" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>45314</v>
+      </c>
       <c r="B269" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>45315</v>
+      </c>
       <c r="B270" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>45316</v>
+      </c>
       <c r="B271" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>45317</v>
+      </c>
       <c r="B272" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>45318</v>
+      </c>
       <c r="B273" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>45319</v>
+      </c>
       <c r="B274" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>45320</v>
+      </c>
       <c r="B275" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>45321</v>
+      </c>
       <c r="B276" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>45322</v>
+      </c>
       <c r="B277" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>45323</v>
+      </c>
       <c r="B278" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>45324</v>
+      </c>
       <c r="B279" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>45325</v>
+      </c>
       <c r="B280" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>45326</v>
+      </c>
       <c r="B281" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>45327</v>
+      </c>
       <c r="B282" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>45328</v>
+      </c>
       <c r="B283" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>45329</v>
+      </c>
       <c r="B284" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>45330</v>
+      </c>
       <c r="B285" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>45331</v>
+      </c>
       <c r="B286" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>45332</v>
+      </c>
       <c r="B287" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>45333</v>
+      </c>
       <c r="B288" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>45334</v>
+      </c>
       <c r="B289" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>45335</v>
+      </c>
       <c r="B290" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>45336</v>
+      </c>
       <c r="B291" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>45337</v>
+      </c>
       <c r="B292" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>45338</v>
+      </c>
       <c r="B293" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>45339</v>
+      </c>
       <c r="B294" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>45340</v>
+      </c>
       <c r="B295" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>45341</v>
+      </c>
       <c r="B296" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>45342</v>
+      </c>
       <c r="B297" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>45343</v>
+      </c>
       <c r="B298" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>45344</v>
+      </c>
       <c r="B299" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>45345</v>
+      </c>
       <c r="B300" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>45346</v>
+      </c>
       <c r="B301" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>45347</v>
+      </c>
       <c r="B302" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>45348</v>
+      </c>
       <c r="B303" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>45349</v>
+      </c>
       <c r="B304" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>45350</v>
+      </c>
       <c r="B305" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>45351</v>
+      </c>
       <c r="B306" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>45352</v>
+      </c>
       <c r="B307" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>45353</v>
+      </c>
       <c r="B308" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>45354</v>
+      </c>
       <c r="B309" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>45355</v>
+      </c>
       <c r="B310" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>45356</v>
+      </c>
       <c r="B311" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>45357</v>
+      </c>
       <c r="B312" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>45358</v>
+      </c>
       <c r="B313" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>45359</v>
+      </c>
       <c r="B314" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>45360</v>
+      </c>
       <c r="B315" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>45361</v>
+      </c>
       <c r="B316" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>45362</v>
+      </c>
       <c r="B317" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>45363</v>
+      </c>
       <c r="B318" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>45364</v>
+      </c>
       <c r="B319" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>45365</v>
+      </c>
       <c r="B320" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>45366</v>
+      </c>
       <c r="B321" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>45367</v>
+      </c>
       <c r="B322" s="1" t="str">
         <f t="shared" si="6"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>45368</v>
+      </c>
       <c r="B323" s="1" t="str">
         <f t="shared" ref="B323:B386" si="7">CONCATENATE("[", G323, "](https://www.acmicpc.net/problem/", G323, ")")</f>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>45369</v>
+      </c>
       <c r="B324" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>45370</v>
+      </c>
       <c r="B325" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>45371</v>
+      </c>
       <c r="B326" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>45372</v>
+      </c>
       <c r="B327" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>45373</v>
+      </c>
       <c r="B328" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>45374</v>
+      </c>
       <c r="B329" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>45375</v>
+      </c>
       <c r="B330" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>45376</v>
+      </c>
       <c r="B331" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>45377</v>
+      </c>
       <c r="B332" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>45378</v>
+      </c>
       <c r="B333" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>45379</v>
+      </c>
       <c r="B334" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>45380</v>
+      </c>
       <c r="B335" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>45381</v>
+      </c>
       <c r="B336" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>45382</v>
+      </c>
       <c r="B337" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>45383</v>
+      </c>
       <c r="B338" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>45384</v>
+      </c>
       <c r="B339" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>45385</v>
+      </c>
       <c r="B340" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>45386</v>
+      </c>
       <c r="B341" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>45387</v>
+      </c>
       <c r="B342" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>45388</v>
+      </c>
       <c r="B343" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>45389</v>
+      </c>
       <c r="B344" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>45390</v>
+      </c>
       <c r="B345" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>45391</v>
+      </c>
       <c r="B346" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>45392</v>
+      </c>
       <c r="B347" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>45393</v>
+      </c>
       <c r="B348" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>45394</v>
+      </c>
       <c r="B349" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>45395</v>
+      </c>
       <c r="B350" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>45396</v>
+      </c>
       <c r="B351" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>45397</v>
+      </c>
       <c r="B352" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>45398</v>
+      </c>
       <c r="B353" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>45399</v>
+      </c>
       <c r="B354" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>45400</v>
+      </c>
       <c r="B355" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>45401</v>
+      </c>
       <c r="B356" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>45402</v>
+      </c>
       <c r="B357" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>45403</v>
+      </c>
       <c r="B358" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>45404</v>
+      </c>
       <c r="B359" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>45405</v>
+      </c>
       <c r="B360" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>45406</v>
+      </c>
       <c r="B361" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>45407</v>
+      </c>
       <c r="B362" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>45408</v>
+      </c>
       <c r="B363" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>45409</v>
+      </c>
       <c r="B364" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>45410</v>
+      </c>
       <c r="B365" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>45411</v>
+      </c>
       <c r="B366" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>45412</v>
+      </c>
       <c r="B367" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>45413</v>
+      </c>
       <c r="B368" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>45414</v>
+      </c>
       <c r="B369" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>45415</v>
+      </c>
       <c r="B370" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>45416</v>
+      </c>
       <c r="B371" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>45417</v>
+      </c>
       <c r="B372" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>45418</v>
+      </c>
       <c r="B373" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>45419</v>
+      </c>
       <c r="B374" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>45420</v>
+      </c>
       <c r="B375" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>45421</v>
+      </c>
       <c r="B376" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>45422</v>
+      </c>
       <c r="B377" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>45423</v>
+      </c>
       <c r="B378" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>45424</v>
+      </c>
       <c r="B379" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>45425</v>
+      </c>
       <c r="B380" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>45426</v>
+      </c>
       <c r="B381" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>45427</v>
+      </c>
       <c r="B382" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>45428</v>
+      </c>
       <c r="B383" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>45429</v>
+      </c>
       <c r="B384" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>45430</v>
+      </c>
       <c r="B385" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>45431</v>
+      </c>
       <c r="B386" s="1" t="str">
         <f t="shared" si="7"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>45432</v>
+      </c>
       <c r="B387" s="1" t="str">
         <f t="shared" ref="B387:B450" si="8">CONCATENATE("[", G387, "](https://www.acmicpc.net/problem/", G387, ")")</f>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B388" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B389" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B390" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B391" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B393" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B394" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B395" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B396" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B397" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B398" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B399" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B400" s="1" t="str">
         <f t="shared" si="8"/>
         <v>[](https://www.acmicpc.net/problem/)</v>

--- a/docs/study/Random Platinum Defence/rpd.xlsx
+++ b/docs/study/Random Platinum Defence/rpd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysnu-my.sharepoint.com/personal/arnold518_seoul_ac_kr/Documents/Informatics/Blog/ps-notes/docs/study/Random Platinum Defence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D709FA92-A228-42EA-B15B-1C5EA83ED878}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2FC91B-9FF8-46C0-B456-85BF94C8B01B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3B4B87AD-5D29-4036-BF04-806A8FD514C2}"/>
   </bookViews>
@@ -130,10 +130,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,11 +518,23 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>[](https://www.acmicpc.net/problem/)</v>
+        <v>[10266](https://www.acmicpc.net/problem/10266)</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10266</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">

--- a/docs/study/Random Platinum Defence/rpd.xlsx
+++ b/docs/study/Random Platinum Defence/rpd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysnu-my.sharepoint.com/personal/arnold518_seoul_ac_kr/Documents/Informatics/Blog/ps-notes/docs/study/Random Platinum Defence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2FC91B-9FF8-46C0-B456-85BF94C8B01B}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD94ACBC-2ACF-46B6-94CA-DEDC81721C4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3B4B87AD-5D29-4036-BF04-806A8FD514C2}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE("[", G2, "](https://www.acmicpc.net/problem/", G2, ")")</f>
-        <v>[14691](https://www.acmicpc.net/problem/14691)</v>
+        <v>[14961](https://www.acmicpc.net/problem/14961)</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
@@ -484,7 +484,7 @@
         <v>67</v>
       </c>
       <c r="G2" s="1">
-        <v>14691</v>
+        <v>14961</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -543,11 +543,23 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>[](https://www.acmicpc.net/problem/)</v>
+        <v>[8916](https://www.acmicpc.net/problem/8916)</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8916</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">

--- a/docs/study/Random Platinum Defence/rpd.xlsx
+++ b/docs/study/Random Platinum Defence/rpd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysnu-my.sharepoint.com/personal/arnold518_seoul_ac_kr/Documents/Informatics/Blog/ps-notes/docs/study/Random Platinum Defence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD94ACBC-2ACF-46B6-94CA-DEDC81721C4F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35C6B4F-16AE-42D4-B828-45E467998355}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3B4B87AD-5D29-4036-BF04-806A8FD514C2}"/>
   </bookViews>
@@ -130,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +436,7 @@
   <dimension ref="A1:G486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,11 +572,23 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>[](https://www.acmicpc.net/problem/)</v>
+        <v>[3946](https://www.acmicpc.net/problem/3946)</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3946</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/docs/study/Random Platinum Defence/rpd.xlsx
+++ b/docs/study/Random Platinum Defence/rpd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysnu-my.sharepoint.com/personal/arnold518_seoul_ac_kr/Documents/Informatics/Blog/ps-notes/docs/study/Random Platinum Defence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35C6B4F-16AE-42D4-B828-45E467998355}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{DD21D322-C261-4F8B-9DCC-3B57DBF0D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6FF91F-F3F4-4538-9304-8A82F1C2E339}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3B4B87AD-5D29-4036-BF04-806A8FD514C2}"/>
+    <workbookView xWindow="25490" yWindow="-990" windowWidth="25820" windowHeight="15500" xr2:uid="{3B4B87AD-5D29-4036-BF04-806A8FD514C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:G486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,11 +597,23 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>[](https://www.acmicpc.net/problem/)</v>
+        <v>[9463](https://www.acmicpc.net/problem/9463)</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9463</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
